--- a/results/robustness_checks.xlsx
+++ b/results/robustness_checks.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\projects\python\bsic_systematic_fx\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773FF762-58C5-48EC-8252-1322C1551870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31551A55-7733-4EF1-AB01-2082F94A48E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="0" windowWidth="28800" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="paper" sheetId="6" r:id="rId1"/>
-    <sheet name="improved_stats" sheetId="5" r:id="rId2"/>
+    <sheet name="format_to_bsic_standards" sheetId="8" r:id="rId1"/>
+    <sheet name="paper_weekly_rebalancing" sheetId="7" r:id="rId2"/>
+    <sheet name="paper" sheetId="6" r:id="rId3"/>
+    <sheet name="improved_stats" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Total</t>
   </si>
@@ -43,6 +45,18 @@
   </si>
   <si>
     <t>2000s</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>2000-2010</t>
+  </si>
+  <si>
+    <t>2010-2020</t>
   </si>
 </sst>
 </file>
@@ -116,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -125,6 +139,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,11 +443,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5220731-67A1-4BB6-853C-66EAA50B4340}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.10277109753760059</v>
+      </c>
+      <c r="C2">
+        <v>0.59300118816030833</v>
+      </c>
+      <c r="D2">
+        <v>0.57222594432367402</v>
+      </c>
+      <c r="E2">
+        <v>0.57086164296253339</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.64180904570128883</v>
+      </c>
+      <c r="G2">
+        <v>0.61085426480264182</v>
+      </c>
+      <c r="H2">
+        <v>0.57590467725145278</v>
+      </c>
+      <c r="I2">
+        <v>0.56236254763286742</v>
+      </c>
+      <c r="J2">
+        <v>0.57289810690953979</v>
+      </c>
+      <c r="K2">
+        <v>0.51874473895218609</v>
+      </c>
+      <c r="L2">
+        <v>0.50603392826946225</v>
+      </c>
+      <c r="M2">
+        <v>0.45168989992585939</v>
+      </c>
+      <c r="N2">
+        <v>0.42247144953337212</v>
+      </c>
+      <c r="O2">
+        <v>0.41177611120618529</v>
+      </c>
+      <c r="P2">
+        <v>0.34946955395097867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.0490137114163001</v>
+      </c>
+      <c r="C3">
+        <v>1.434982139485669</v>
+      </c>
+      <c r="D3">
+        <v>1.2943047991730501</v>
+      </c>
+      <c r="E3">
+        <v>1.2391795365528739</v>
+      </c>
+      <c r="F3">
+        <v>1.3694102876617571</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.443042284823141</v>
+      </c>
+      <c r="H3">
+        <v>1.3700343552736449</v>
+      </c>
+      <c r="I3">
+        <v>1.299822883627044</v>
+      </c>
+      <c r="J3">
+        <v>1.350071627379829</v>
+      </c>
+      <c r="K3">
+        <v>1.248677773165314</v>
+      </c>
+      <c r="L3">
+        <v>1.212098843731839</v>
+      </c>
+      <c r="M3">
+        <v>1.0981818670917001</v>
+      </c>
+      <c r="N3">
+        <v>1.0119847234027859</v>
+      </c>
+      <c r="O3">
+        <v>0.99890562562774432</v>
+      </c>
+      <c r="P3">
+        <v>0.91153359502956166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-0.57544962133575761</v>
+      </c>
+      <c r="C4">
+        <v>-0.19549829188749829</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.15163963681265219</v>
+      </c>
+      <c r="E4">
+        <v>-0.31019878694465541</v>
+      </c>
+      <c r="F4">
+        <v>-0.27765141209030197</v>
+      </c>
+      <c r="G4">
+        <v>-0.21299648359270409</v>
+      </c>
+      <c r="H4">
+        <v>-0.2098310782613807</v>
+      </c>
+      <c r="I4">
+        <v>-0.1932366748722153</v>
+      </c>
+      <c r="J4">
+        <v>-0.22183807121746441</v>
+      </c>
+      <c r="K4">
+        <v>-0.19275918118383559</v>
+      </c>
+      <c r="L4">
+        <v>-0.17331960112314251</v>
+      </c>
+      <c r="M4">
+        <v>-0.20620580112628589</v>
+      </c>
+      <c r="N4">
+        <v>-0.2046546717033354</v>
+      </c>
+      <c r="O4">
+        <v>-0.20626312632416219</v>
+      </c>
+      <c r="P4">
+        <v>-0.23163087276473621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2F1E75-5BB3-4BD5-9F5B-C2F7B74DD9A3}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2494283102632181</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.50792574059500351</v>
+      </c>
+      <c r="D2" s="6">
+        <v>-0.20249410649828309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.22468082927862809</v>
+      </c>
+      <c r="C3">
+        <v>0.32755005422907202</v>
+      </c>
+      <c r="D3">
+        <v>-7.876662557922641E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.18853658684028771</v>
+      </c>
+      <c r="C4">
+        <v>0.2729058532979165</v>
+      </c>
+      <c r="D4">
+        <v>-0.16065664756425649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.17266680918710661</v>
+      </c>
+      <c r="C5">
+        <v>0.18433217854077699</v>
+      </c>
+      <c r="D5">
+        <v>-0.1267082167877851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.19292610114685091</v>
+      </c>
+      <c r="C6">
+        <v>0.2521547917661689</v>
+      </c>
+      <c r="D6">
+        <v>-0.16403832399525481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.16342887652807839</v>
+      </c>
+      <c r="C7">
+        <v>0.2030365961557854</v>
+      </c>
+      <c r="D7">
+        <v>-0.1490302751699733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.1545277130564687</v>
+      </c>
+      <c r="C8">
+        <v>0.24454108920475709</v>
+      </c>
+      <c r="D8">
+        <v>-0.1480636800199582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.14079154991829701</v>
+      </c>
+      <c r="C9">
+        <v>0.22736781093312289</v>
+      </c>
+      <c r="D9">
+        <v>-0.116486713723608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.17505803684640581</v>
+      </c>
+      <c r="C10">
+        <v>0.28222853934390713</v>
+      </c>
+      <c r="D10">
+        <v>-9.7318655691187375E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.12925307294061211</v>
+      </c>
+      <c r="C11">
+        <v>0.23134461067533391</v>
+      </c>
+      <c r="D11">
+        <v>-0.15126543298733669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.1432971544857129</v>
+      </c>
+      <c r="C12">
+        <v>0.23208842730982601</v>
+      </c>
+      <c r="D12">
+        <v>-0.14359458729320879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.14972006189363021</v>
+      </c>
+      <c r="C13">
+        <v>0.23340098081869881</v>
+      </c>
+      <c r="D13">
+        <v>-0.13453651610862299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.15336811686400201</v>
+      </c>
+      <c r="C14">
+        <v>0.2256017497893493</v>
+      </c>
+      <c r="D14">
+        <v>-0.1208188658266121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.16193746718545091</v>
+      </c>
+      <c r="C15">
+        <v>0.27833764416072199</v>
+      </c>
+      <c r="D15">
+        <v>-0.12725271128275159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.15740165437376369</v>
+      </c>
+      <c r="C16">
+        <v>0.26106966071154869</v>
+      </c>
+      <c r="D16">
+        <v>-9.8739457005351999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.1503095423033145</v>
+      </c>
+      <c r="C17">
+        <v>0.26764950600615811</v>
+      </c>
+      <c r="D17">
+        <v>-0.1121659427412897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.1787706137751971</v>
+      </c>
+      <c r="C18">
+        <v>0.31097424420642428</v>
+      </c>
+      <c r="D18">
+        <v>-8.53382147817391E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.13560470806108529</v>
+      </c>
+      <c r="C19">
+        <v>0.28265556889639892</v>
+      </c>
+      <c r="D19">
+        <v>-0.12634624944370179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.1216636529437501</v>
+      </c>
+      <c r="C20">
+        <v>0.26021635525442038</v>
+      </c>
+      <c r="D20">
+        <v>-0.1034439302258726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.1119329288849676</v>
+      </c>
+      <c r="C21">
+        <v>0.25703945381022097</v>
+      </c>
+      <c r="D21">
+        <v>-0.1231374060553784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.1046695485066009</v>
+      </c>
+      <c r="C22">
+        <v>0.21086579713466841</v>
+      </c>
+      <c r="D22">
+        <v>-8.9770842638382739E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>6.3808207263190905E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.16403548640155699</v>
+      </c>
+      <c r="D23">
+        <v>-0.12646349669098919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>7.4951119750833697E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.15318267857560741</v>
+      </c>
+      <c r="D24">
+        <v>-9.9250419842135881E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>7.4924469241296018E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.1669858310796366</v>
+      </c>
+      <c r="D25">
+        <v>-0.1437366607378828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>6.4986588907308074E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.12711620008050409</v>
+      </c>
+      <c r="D26">
+        <v>-0.11697001154882219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>6.3317102767294686E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.1343730436861621</v>
+      </c>
+      <c r="D27">
+        <v>-0.1214222504464782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>4.8614334461643538E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.13588873829953479</v>
+      </c>
+      <c r="D28">
+        <v>-0.13466841425919759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2.2517993128937711E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.12983015071682041</v>
+      </c>
+      <c r="D29">
+        <v>-0.1790283573912882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>5.6618587924488067E-3</v>
+      </c>
+      <c r="C30">
+        <v>0.138576354052283</v>
+      </c>
+      <c r="D30">
+        <v>-0.2238306920591559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>MAX(B2:B30)</f>
+        <v>0.2494283102632181</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:D31" si="0">MAX(C2:C30)</f>
+        <v>0.50792574059500351</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-7.876662557922641E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5077C-487C-40AA-9EB5-A098603EF849}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,12 +1532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C3ECDC-F20E-4773-9F8E-9FC7ED3C0073}">
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
